--- a/biology/Zoologie/Caracara_chimango/Caracara_chimango.xlsx
+++ b/biology/Zoologie/Caracara_chimango/Caracara_chimango.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milvago chimango
 Le Caracara chimango (Milvago chimango), également appelé chimango, est une espèce d'oiseaux rapaces de la famille des Falconidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles sont légèrement plus grandes que les mâles, pesant 300 grammes. le poids des mâles est à peine inférieur, 290 grammes. Sa longueur est de 37 à 43 cm. Son envergure  est de 80 cm à 99 cm.
 Il se différencie de son "parent" le Chimachimá (caracara à tête jaune) en ce que son plumage est surtout châtain avec des franges plus claires. La partie inférieure des ailes montre certaines tonalités châtain avec des marques obscures.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est originaire de l'Amérique du Sud. Il se trouve en Argentine et en Uruguay, arrivant jusqu'en Bolivie, au Paraguay et à
 l'extrême sud du Brésil durant les déplacements hivernaux. C'est un animal sédentaire ayant un grand pouvoir d'adaptation.
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve en tout type de terrain où la végétation n'est pas trop haute, depuis la côte jusqu'aux plaines, mais aussi dans les bois dépourvus de végétation secondaire. Il est présent au-dessous d'une altitude de plus ou moins 1 000 mètres.
 </t>
@@ -607,7 +625,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nidifie isolément ou en colonies. Il commence à pondre en septembre, octobre étant le mois de plus grande production. Il montre une préférence pour construire le nid sur des végétaux procurant une certaine protection contre la pluie et les chaleurs intenses. La hauteur de cette végétation, son type et sa localisation n'ont apparemment pas d'importance. La nichée consiste en deux à trois œufs.
 L'incubation dure 26 à 32 jours. Après cinq semaines, les poussins quittent le nid. Les deux sexes partagent les responsabilités du nid: construction, défense, incubation et alimentation des poussins.
@@ -639,9 +659,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un rapace éminemment charognard, bien qu'il attaque n'importe quel animal qu'il voit blessé ou en difficulté, y compris les moutons et même les chevaux. Opportuniste, il utilise la force du groupe pour attaquer n'importe quelle proie. Au Pantanal, il a aussi été observé en train de manger les parasites d'un Capybara à la manière d'un pique-bœuf[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un rapace éminemment charognard, bien qu'il attaque n'importe quel animal qu'il voit blessé ou en difficulté, y compris les moutons et même les chevaux. Opportuniste, il utilise la force du groupe pour attaquer n'importe quelle proie. Au Pantanal, il a aussi été observé en train de manger les parasites d'un Capybara à la manière d'un pique-bœuf.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Milvago chimango chimango (Vieillot, 1816) du Brésil, Paraguay, Uruguay, Bolivie, nord et centre de l'Argentine au plumage plus clair ;
